--- a/Code/Results/Cases/Case_3_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027908604704296</v>
+        <v>1.057577835014504</v>
       </c>
       <c r="D2">
-        <v>1.039649110646384</v>
+        <v>1.055673677659529</v>
       </c>
       <c r="E2">
-        <v>1.035860461916105</v>
+        <v>1.063512524052167</v>
       </c>
       <c r="F2">
-        <v>1.03770394411037</v>
+        <v>1.073908068995313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058526661504837</v>
+        <v>1.050135973658008</v>
       </c>
       <c r="J2">
-        <v>1.049285453598981</v>
+        <v>1.06257353045938</v>
       </c>
       <c r="K2">
-        <v>1.05058238210259</v>
+        <v>1.058413488004615</v>
       </c>
       <c r="L2">
-        <v>1.046841826301873</v>
+        <v>1.066230962235443</v>
       </c>
       <c r="M2">
-        <v>1.048661852647729</v>
+        <v>1.076598684660691</v>
       </c>
       <c r="N2">
-        <v>1.050775559297816</v>
+        <v>1.064082506751519</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034290985366868</v>
+        <v>1.05884592847386</v>
       </c>
       <c r="D3">
-        <v>1.044492091762239</v>
+        <v>1.056638677713175</v>
       </c>
       <c r="E3">
-        <v>1.041668385556556</v>
+        <v>1.064718401152645</v>
       </c>
       <c r="F3">
-        <v>1.044534795735937</v>
+        <v>1.075363787123258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061143897219691</v>
+        <v>1.050566234037704</v>
       </c>
       <c r="J3">
-        <v>1.053888574255971</v>
+        <v>1.063492617072769</v>
       </c>
       <c r="K3">
-        <v>1.054585660068292</v>
+        <v>1.059191589666079</v>
       </c>
       <c r="L3">
-        <v>1.051794489059224</v>
+        <v>1.067250884005787</v>
       </c>
       <c r="M3">
-        <v>1.054627873666972</v>
+        <v>1.077869858144718</v>
       </c>
       <c r="N3">
-        <v>1.055385216914124</v>
+        <v>1.065002898573321</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038309767542208</v>
+        <v>1.059665679180933</v>
       </c>
       <c r="D4">
-        <v>1.047543411714395</v>
+        <v>1.057262313641685</v>
       </c>
       <c r="E4">
-        <v>1.045330219442701</v>
+        <v>1.065498174870204</v>
       </c>
       <c r="F4">
-        <v>1.048844302853901</v>
+        <v>1.07630565280832</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062779810342659</v>
+        <v>1.050842891303345</v>
       </c>
       <c r="J4">
-        <v>1.05678180039229</v>
+        <v>1.064086020983154</v>
       </c>
       <c r="K4">
-        <v>1.057099991772523</v>
+        <v>1.059693671166548</v>
       </c>
       <c r="L4">
-        <v>1.054910680680858</v>
+        <v>1.067909761344243</v>
       </c>
       <c r="M4">
-        <v>1.058386903432441</v>
+        <v>1.078691787287593</v>
       </c>
       <c r="N4">
-        <v>1.058282551763414</v>
+        <v>1.065597145185323</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03997397399157</v>
+        <v>1.060010116634057</v>
       </c>
       <c r="D5">
-        <v>1.048807355001798</v>
+        <v>1.057524304545659</v>
       </c>
       <c r="E5">
-        <v>1.046847710239154</v>
+        <v>1.065825872755247</v>
       </c>
       <c r="F5">
-        <v>1.050630890802662</v>
+        <v>1.076701597633089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063454312131061</v>
+        <v>1.050958780366423</v>
       </c>
       <c r="J5">
-        <v>1.057978613154171</v>
+        <v>1.064335177618466</v>
       </c>
       <c r="K5">
-        <v>1.058139606301627</v>
+        <v>1.05990441248193</v>
       </c>
       <c r="L5">
-        <v>1.056200515670447</v>
+        <v>1.068186497495338</v>
       </c>
       <c r="M5">
-        <v>1.059944099694789</v>
+        <v>1.079037184923474</v>
       </c>
       <c r="N5">
-        <v>1.059481064136693</v>
+        <v>1.065846655651635</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040251954501443</v>
+        <v>1.06006793840795</v>
       </c>
       <c r="D6">
-        <v>1.049018497286421</v>
+        <v>1.057568283142104</v>
       </c>
       <c r="E6">
-        <v>1.047101247500024</v>
+        <v>1.065880887780758</v>
       </c>
       <c r="F6">
-        <v>1.050929430053646</v>
+        <v>1.076768077716617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063566803224847</v>
+        <v>1.050978214196324</v>
       </c>
       <c r="J6">
-        <v>1.05817844539996</v>
+        <v>1.064376993984209</v>
       </c>
       <c r="K6">
-        <v>1.058313163332504</v>
+        <v>1.059939777362015</v>
       </c>
       <c r="L6">
-        <v>1.056415926547264</v>
+        <v>1.068232947787014</v>
       </c>
       <c r="M6">
-        <v>1.060204237733911</v>
+        <v>1.079095170517222</v>
       </c>
       <c r="N6">
-        <v>1.059681180167192</v>
+        <v>1.065888531401415</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038332102477248</v>
+        <v>1.059670282296508</v>
       </c>
       <c r="D7">
-        <v>1.047560373440231</v>
+        <v>1.057265815103971</v>
       </c>
       <c r="E7">
-        <v>1.04535058104976</v>
+        <v>1.065502554049223</v>
       </c>
       <c r="F7">
-        <v>1.048868272382831</v>
+        <v>1.076310943498463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062788874370066</v>
+        <v>1.050844441458158</v>
       </c>
       <c r="J7">
-        <v>1.056797867711935</v>
+        <v>1.064089351442828</v>
       </c>
       <c r="K7">
-        <v>1.057113950550725</v>
+        <v>1.059696488411278</v>
       </c>
       <c r="L7">
-        <v>1.054927993695834</v>
+        <v>1.067913460108284</v>
       </c>
       <c r="M7">
-        <v>1.058407800043399</v>
+        <v>1.078696403058877</v>
       </c>
       <c r="N7">
-        <v>1.058298641900495</v>
+        <v>1.065600480374631</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030089362696178</v>
+        <v>1.058006558945654</v>
       </c>
       <c r="D8">
-        <v>1.041303444256144</v>
+        <v>1.055999967386921</v>
       </c>
       <c r="E8">
-        <v>1.037843903823788</v>
+        <v>1.063920163126706</v>
       </c>
       <c r="F8">
-        <v>1.040036174671749</v>
+        <v>1.074400054963134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059423445956817</v>
+        <v>1.050281745291878</v>
       </c>
       <c r="J8">
-        <v>1.050859338224773</v>
+        <v>1.062884412086414</v>
       </c>
       <c r="K8">
-        <v>1.051951555464495</v>
+        <v>1.058676742647052</v>
       </c>
       <c r="L8">
-        <v>1.048534540523034</v>
+        <v>1.066575874891593</v>
       </c>
       <c r="M8">
-        <v>1.050699822612729</v>
+        <v>1.077028411082802</v>
       </c>
       <c r="N8">
-        <v>1.052351679020303</v>
+        <v>1.064393829866123</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014650601361703</v>
+        <v>1.05506865325879</v>
       </c>
       <c r="D9">
-        <v>1.029602781172572</v>
+        <v>1.053763291752551</v>
       </c>
       <c r="E9">
-        <v>1.023824611865289</v>
+        <v>1.061127753524023</v>
       </c>
       <c r="F9">
-        <v>1.023561410210482</v>
+        <v>1.071032025508133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053024588672022</v>
+        <v>1.049276741753935</v>
       </c>
       <c r="J9">
-        <v>1.039696408958539</v>
+        <v>1.060751038804106</v>
       </c>
       <c r="K9">
-        <v>1.042233161599625</v>
+        <v>1.056868991787127</v>
       </c>
       <c r="L9">
-        <v>1.036542625566554</v>
+        <v>1.064210482763742</v>
       </c>
       <c r="M9">
-        <v>1.036283445748147</v>
+        <v>1.074084405305178</v>
       </c>
       <c r="N9">
-        <v>1.041172897114105</v>
+        <v>1.062257426949053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003645312467853</v>
+        <v>1.053105649747332</v>
       </c>
       <c r="D10">
-        <v>1.021280573655279</v>
+        <v>1.05226795375437</v>
       </c>
       <c r="E10">
-        <v>1.013862579456541</v>
+        <v>1.059263246111482</v>
       </c>
       <c r="F10">
-        <v>1.011864781578476</v>
+        <v>1.068785885287661</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048401501448773</v>
+        <v>1.048597606112534</v>
       </c>
       <c r="J10">
-        <v>1.0317150434662</v>
+        <v>1.059321833599895</v>
       </c>
       <c r="K10">
-        <v>1.035275944773025</v>
+        <v>1.055656418303762</v>
       </c>
       <c r="L10">
-        <v>1.02798597179091</v>
+        <v>1.062627736229412</v>
       </c>
       <c r="M10">
-        <v>1.026023067947719</v>
+        <v>1.072118293122863</v>
       </c>
       <c r="N10">
-        <v>1.033180197167292</v>
+        <v>1.06082619210952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9986857034646281</v>
+        <v>1.052254553809115</v>
       </c>
       <c r="D11">
-        <v>1.017535922612796</v>
+        <v>1.051619425921153</v>
       </c>
       <c r="E11">
-        <v>1.009381498742606</v>
+        <v>1.058455163170101</v>
       </c>
       <c r="F11">
-        <v>1.006605069682584</v>
+        <v>1.067813038937472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046304171715332</v>
+        <v>1.048301347720986</v>
       </c>
       <c r="J11">
-        <v>1.028113261108867</v>
+        <v>1.058701286947778</v>
       </c>
       <c r="K11">
-        <v>1.032134544693745</v>
+        <v>1.055129575346969</v>
       </c>
       <c r="L11">
-        <v>1.02412863615935</v>
+        <v>1.061940970272391</v>
       </c>
       <c r="M11">
-        <v>1.02140348985493</v>
+        <v>1.071266078855766</v>
       </c>
       <c r="N11">
-        <v>1.02957329986588</v>
+        <v>1.060204764209979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9968118731666402</v>
+        <v>1.051938248835412</v>
       </c>
       <c r="D12">
-        <v>1.016122132422669</v>
+        <v>1.051378375490016</v>
       </c>
       <c r="E12">
-        <v>1.007689810648504</v>
+        <v>1.058154890414615</v>
       </c>
       <c r="F12">
-        <v>1.004619600174876</v>
+        <v>1.06745163758984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045509744426883</v>
+        <v>1.048190973719089</v>
       </c>
       <c r="J12">
-        <v>1.026751775811444</v>
+        <v>1.058470531071299</v>
       </c>
       <c r="K12">
-        <v>1.030946841512022</v>
+        <v>1.054933610841614</v>
       </c>
       <c r="L12">
-        <v>1.022671154170111</v>
+        <v>1.061685657075845</v>
       </c>
       <c r="M12">
-        <v>1.019658827891557</v>
+        <v>1.070949392751886</v>
       </c>
       <c r="N12">
-        <v>1.028209881103171</v>
+        <v>1.059973680633687</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9972152885575454</v>
+        <v>1.052006105092086</v>
       </c>
       <c r="D13">
-        <v>1.016426458418109</v>
+        <v>1.051430088831571</v>
       </c>
       <c r="E13">
-        <v>1.008053950568904</v>
+        <v>1.058219305194097</v>
       </c>
       <c r="F13">
-        <v>1.005046971085191</v>
+        <v>1.067529161426044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045680865930518</v>
+        <v>1.048214664297787</v>
       </c>
       <c r="J13">
-        <v>1.027044917709837</v>
+        <v>1.058520040679994</v>
       </c>
       <c r="K13">
-        <v>1.031202576907041</v>
+        <v>1.054975658223603</v>
       </c>
       <c r="L13">
-        <v>1.022984938025584</v>
+        <v>1.061740432532218</v>
       </c>
       <c r="M13">
-        <v>1.020034402390817</v>
+        <v>1.071017329210795</v>
       </c>
       <c r="N13">
-        <v>1.028503439296684</v>
+        <v>1.060023260551705</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9985314719275002</v>
+        <v>1.052228411435833</v>
       </c>
       <c r="D14">
-        <v>1.017419534889078</v>
+        <v>1.051599503861936</v>
       </c>
       <c r="E14">
-        <v>1.009242231166892</v>
+        <v>1.058430344893545</v>
       </c>
       <c r="F14">
-        <v>1.006441613771134</v>
+        <v>1.067783166292928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046238824378905</v>
+        <v>1.04829223092236</v>
       </c>
       <c r="J14">
-        <v>1.02800121282848</v>
+        <v>1.058682217860306</v>
       </c>
       <c r="K14">
-        <v>1.032036803228354</v>
+        <v>1.055113382414643</v>
       </c>
       <c r="L14">
-        <v>1.024008675289079</v>
+        <v>1.061919870465867</v>
       </c>
       <c r="M14">
-        <v>1.021259875463913</v>
+        <v>1.071239904278811</v>
       </c>
       <c r="N14">
-        <v>1.029461092464083</v>
+        <v>1.060185668042215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9993381499663045</v>
+        <v>1.052365359045951</v>
       </c>
       <c r="D15">
-        <v>1.018028320008376</v>
+        <v>1.051703864997432</v>
       </c>
       <c r="E15">
-        <v>1.009970698379774</v>
+        <v>1.058560358096628</v>
       </c>
       <c r="F15">
-        <v>1.007296609230586</v>
+        <v>1.067939661242965</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046580529263619</v>
+        <v>1.048339978441834</v>
       </c>
       <c r="J15">
-        <v>1.0285872328959</v>
+        <v>1.058782106396133</v>
       </c>
       <c r="K15">
-        <v>1.032547987924593</v>
+        <v>1.055198202771559</v>
       </c>
       <c r="L15">
-        <v>1.024636103227393</v>
+        <v>1.062030399142254</v>
       </c>
       <c r="M15">
-        <v>1.022011051289838</v>
+        <v>1.071377022001067</v>
       </c>
       <c r="N15">
-        <v>1.030047944747218</v>
+        <v>1.060285698431221</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003970171749586</v>
+        <v>1.053162110577743</v>
       </c>
       <c r="D16">
-        <v>1.021525983435382</v>
+        <v>1.052310972350795</v>
       </c>
       <c r="E16">
-        <v>1.014156275461089</v>
+        <v>1.05931686002642</v>
       </c>
       <c r="F16">
-        <v>1.012209537339755</v>
+        <v>1.068850444150411</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048538596198468</v>
+        <v>1.048617221559369</v>
       </c>
       <c r="J16">
-        <v>1.031950867684117</v>
+        <v>1.059362981337101</v>
       </c>
       <c r="K16">
-        <v>1.035481590757068</v>
+        <v>1.055691345191632</v>
       </c>
       <c r="L16">
-        <v>1.028238611743274</v>
+        <v>1.062673284279302</v>
       </c>
       <c r="M16">
-        <v>1.026325748577235</v>
+        <v>1.072174832975719</v>
       </c>
       <c r="N16">
-        <v>1.033416356282647</v>
+        <v>1.060867398281232</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006822080697822</v>
+        <v>1.053661593492029</v>
       </c>
       <c r="D17">
-        <v>1.023681084654474</v>
+        <v>1.052691515407323</v>
       </c>
       <c r="E17">
-        <v>1.016735562032864</v>
+        <v>1.059791193222043</v>
       </c>
       <c r="F17">
-        <v>1.015237413684797</v>
+        <v>1.069421683056584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049740573577578</v>
+        <v>1.048790541810542</v>
       </c>
       <c r="J17">
-        <v>1.034020597398084</v>
+        <v>1.059726893821933</v>
       </c>
       <c r="K17">
-        <v>1.037286259436148</v>
+        <v>1.056000199201982</v>
       </c>
       <c r="L17">
-        <v>1.030456384044095</v>
+        <v>1.063076164850155</v>
       </c>
       <c r="M17">
-        <v>1.028983448394749</v>
+        <v>1.072675041459934</v>
       </c>
       <c r="N17">
-        <v>1.03548902525021</v>
+        <v>1.061231827563534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008466986620576</v>
+        <v>1.05395282735374</v>
       </c>
       <c r="D18">
-        <v>1.024924628111122</v>
+        <v>1.052913379891855</v>
       </c>
       <c r="E18">
-        <v>1.018224009637402</v>
+        <v>1.060067792709698</v>
       </c>
       <c r="F18">
-        <v>1.016984890209057</v>
+        <v>1.069754852987257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050432527875209</v>
+        <v>1.048891425568811</v>
       </c>
       <c r="J18">
-        <v>1.035213893922291</v>
+        <v>1.059938994836794</v>
       </c>
       <c r="K18">
-        <v>1.038326565675204</v>
+        <v>1.056180175924116</v>
       </c>
       <c r="L18">
-        <v>1.031735416591738</v>
+        <v>1.063311020892727</v>
       </c>
       <c r="M18">
-        <v>1.030516744303464</v>
+        <v>1.07296672050498</v>
       </c>
       <c r="N18">
-        <v>1.036684016392354</v>
+        <v>1.061444229786164</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009024777578881</v>
+        <v>1.054052112715684</v>
       </c>
       <c r="D19">
-        <v>1.025346403689033</v>
+        <v>1.052989013090033</v>
       </c>
       <c r="E19">
-        <v>1.018728875650919</v>
+        <v>1.060162094050303</v>
       </c>
       <c r="F19">
-        <v>1.017577645117265</v>
+        <v>1.069868451390918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050666945997365</v>
+        <v>1.048925788582987</v>
       </c>
       <c r="J19">
-        <v>1.035618461580005</v>
+        <v>1.060011288250878</v>
       </c>
       <c r="K19">
-        <v>1.03867923491278</v>
+        <v>1.05624151413659</v>
       </c>
       <c r="L19">
-        <v>1.03216911672381</v>
+        <v>1.063391077536432</v>
       </c>
       <c r="M19">
-        <v>1.031036755385319</v>
+        <v>1.073066161388039</v>
       </c>
       <c r="N19">
-        <v>1.037089158582546</v>
+        <v>1.061516625865188</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006518034733726</v>
+        <v>1.053608014707212</v>
       </c>
       <c r="D20">
-        <v>1.023451269539973</v>
+        <v>1.0526506970856</v>
       </c>
       <c r="E20">
-        <v>1.016460498780209</v>
+        <v>1.059740309135681</v>
       </c>
       <c r="F20">
-        <v>1.014914495521626</v>
+        <v>1.069360397053699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049612565182447</v>
+        <v>1.048771968026719</v>
       </c>
       <c r="J20">
-        <v>1.033799988870532</v>
+        <v>1.059687866337786</v>
       </c>
       <c r="K20">
-        <v>1.037093920762643</v>
+        <v>1.055967079961512</v>
       </c>
       <c r="L20">
-        <v>1.030219956245058</v>
+        <v>1.063032953813615</v>
       </c>
       <c r="M20">
-        <v>1.028700064971181</v>
+        <v>1.072621382555425</v>
       </c>
       <c r="N20">
-        <v>1.035268103433245</v>
+        <v>1.061192744655883</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981447822104161</v>
+        <v>1.052162952488127</v>
       </c>
       <c r="D21">
-        <v>1.017127743956852</v>
+        <v>1.051549619749199</v>
       </c>
       <c r="E21">
-        <v>1.008893081088881</v>
+        <v>1.058368202160578</v>
       </c>
       <c r="F21">
-        <v>1.006031824838331</v>
+        <v>1.067708369414284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046074953151715</v>
+        <v>1.04826939862026</v>
       </c>
       <c r="J21">
-        <v>1.027720274622547</v>
+        <v>1.058634467848459</v>
       </c>
       <c r="K21">
-        <v>1.031791732608152</v>
+        <v>1.055072833590377</v>
       </c>
       <c r="L21">
-        <v>1.023707907559267</v>
+        <v>1.061867036505402</v>
       </c>
       <c r="M21">
-        <v>1.020899816490406</v>
+        <v>1.071174365252155</v>
       </c>
       <c r="N21">
-        <v>1.029179755293675</v>
+        <v>1.060137850219875</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9926958855856717</v>
+        <v>1.051253398475659</v>
       </c>
       <c r="D22">
-        <v>1.01301866752044</v>
+        <v>1.050856411457514</v>
       </c>
       <c r="E22">
-        <v>1.003976493803722</v>
+        <v>1.057504838143726</v>
       </c>
       <c r="F22">
-        <v>1.000261635595842</v>
+        <v>1.066669423430088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043761098151145</v>
+        <v>1.047951500592705</v>
       </c>
       <c r="J22">
-        <v>1.023760045123397</v>
+        <v>1.05797066466137</v>
       </c>
       <c r="K22">
-        <v>1.028336559735361</v>
+        <v>1.054509012890919</v>
       </c>
       <c r="L22">
-        <v>1.019469585035088</v>
+        <v>1.06113271650595</v>
       </c>
       <c r="M22">
-        <v>1.015827911215212</v>
+        <v>1.070263780284908</v>
       </c>
       <c r="N22">
-        <v>1.025213901814391</v>
+        <v>1.059473104356121</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9956028029404624</v>
+        <v>1.051735665210536</v>
       </c>
       <c r="D23">
-        <v>1.015210200128691</v>
+        <v>1.051223982099868</v>
       </c>
       <c r="E23">
-        <v>1.006598656718189</v>
+        <v>1.057962588122016</v>
       </c>
       <c r="F23">
-        <v>1.003338991001195</v>
+        <v>1.067220213756902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044996588725475</v>
+        <v>1.048120206221179</v>
       </c>
       <c r="J23">
-        <v>1.025873112938675</v>
+        <v>1.058322701543407</v>
       </c>
       <c r="K23">
-        <v>1.030180267091487</v>
+        <v>1.054808054822178</v>
       </c>
       <c r="L23">
-        <v>1.021730707056943</v>
+        <v>1.06152211416747</v>
       </c>
       <c r="M23">
-        <v>1.018533305494325</v>
+        <v>1.070746574736064</v>
       </c>
       <c r="N23">
-        <v>1.027329970428338</v>
+        <v>1.059825641170909</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006655477206851</v>
+        <v>1.053632224981341</v>
       </c>
       <c r="D24">
-        <v>1.023555154664887</v>
+        <v>1.052669141436622</v>
       </c>
       <c r="E24">
-        <v>1.016584837337127</v>
+        <v>1.059763301683389</v>
       </c>
       <c r="F24">
-        <v>1.015060465736007</v>
+        <v>1.069388089634486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049670434830737</v>
+        <v>1.048780361372056</v>
       </c>
       <c r="J24">
-        <v>1.033899715325188</v>
+        <v>1.059705501681413</v>
       </c>
       <c r="K24">
-        <v>1.037180868312576</v>
+        <v>1.055982045653885</v>
       </c>
       <c r="L24">
-        <v>1.030326832639556</v>
+        <v>1.06305247944536</v>
       </c>
       <c r="M24">
-        <v>1.028828165792137</v>
+        <v>1.072645628964309</v>
       </c>
       <c r="N24">
-        <v>1.035367971510904</v>
+        <v>1.06121040504372</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018759729220899</v>
+        <v>1.055828931397115</v>
       </c>
       <c r="D25">
-        <v>1.03271427661648</v>
+        <v>1.054342260681566</v>
       </c>
       <c r="E25">
-        <v>1.027550853972515</v>
+        <v>1.061850155806005</v>
       </c>
       <c r="F25">
-        <v>1.027938303363788</v>
+        <v>1.071902862262384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054738461143492</v>
+        <v>1.04953816296155</v>
       </c>
       <c r="J25">
-        <v>1.042671837146704</v>
+        <v>1.06130378164517</v>
       </c>
       <c r="K25">
-        <v>1.044825117754511</v>
+        <v>1.057337634857797</v>
       </c>
       <c r="L25">
-        <v>1.03973601978771</v>
+        <v>1.064823006113241</v>
       </c>
       <c r="M25">
-        <v>1.040117859212715</v>
+        <v>1.074846091761801</v>
       </c>
       <c r="N25">
-        <v>1.044152550751583</v>
+        <v>1.062810954748351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057577835014504</v>
+        <v>1.027908604704297</v>
       </c>
       <c r="D2">
-        <v>1.055673677659529</v>
+        <v>1.039649110646385</v>
       </c>
       <c r="E2">
-        <v>1.063512524052167</v>
+        <v>1.035860461916106</v>
       </c>
       <c r="F2">
-        <v>1.073908068995313</v>
+        <v>1.037703944110371</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050135973658008</v>
+        <v>1.058526661504837</v>
       </c>
       <c r="J2">
-        <v>1.06257353045938</v>
+        <v>1.049285453598982</v>
       </c>
       <c r="K2">
-        <v>1.058413488004615</v>
+        <v>1.050582382102591</v>
       </c>
       <c r="L2">
-        <v>1.066230962235443</v>
+        <v>1.046841826301874</v>
       </c>
       <c r="M2">
-        <v>1.076598684660691</v>
+        <v>1.048661852647729</v>
       </c>
       <c r="N2">
-        <v>1.064082506751519</v>
+        <v>1.050775559297817</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05884592847386</v>
+        <v>1.034290985366868</v>
       </c>
       <c r="D3">
-        <v>1.056638677713175</v>
+        <v>1.04449209176224</v>
       </c>
       <c r="E3">
-        <v>1.064718401152645</v>
+        <v>1.041668385556556</v>
       </c>
       <c r="F3">
-        <v>1.075363787123258</v>
+        <v>1.044534795735938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050566234037704</v>
+        <v>1.061143897219691</v>
       </c>
       <c r="J3">
-        <v>1.063492617072769</v>
+        <v>1.053888574255971</v>
       </c>
       <c r="K3">
-        <v>1.059191589666079</v>
+        <v>1.054585660068292</v>
       </c>
       <c r="L3">
-        <v>1.067250884005787</v>
+        <v>1.051794489059224</v>
       </c>
       <c r="M3">
-        <v>1.077869858144718</v>
+        <v>1.054627873666973</v>
       </c>
       <c r="N3">
-        <v>1.065002898573321</v>
+        <v>1.055385216914124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059665679180933</v>
+        <v>1.038309767542209</v>
       </c>
       <c r="D4">
-        <v>1.057262313641685</v>
+        <v>1.047543411714396</v>
       </c>
       <c r="E4">
-        <v>1.065498174870204</v>
+        <v>1.045330219442702</v>
       </c>
       <c r="F4">
-        <v>1.07630565280832</v>
+        <v>1.048844302853902</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050842891303345</v>
+        <v>1.062779810342659</v>
       </c>
       <c r="J4">
-        <v>1.064086020983154</v>
+        <v>1.056781800392291</v>
       </c>
       <c r="K4">
-        <v>1.059693671166548</v>
+        <v>1.057099991772525</v>
       </c>
       <c r="L4">
-        <v>1.067909761344243</v>
+        <v>1.054910680680858</v>
       </c>
       <c r="M4">
-        <v>1.078691787287593</v>
+        <v>1.058386903432442</v>
       </c>
       <c r="N4">
-        <v>1.065597145185323</v>
+        <v>1.058282551763415</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060010116634057</v>
+        <v>1.039973973991571</v>
       </c>
       <c r="D5">
-        <v>1.057524304545659</v>
+        <v>1.048807355001799</v>
       </c>
       <c r="E5">
-        <v>1.065825872755247</v>
+        <v>1.046847710239155</v>
       </c>
       <c r="F5">
-        <v>1.076701597633089</v>
+        <v>1.050630890802663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050958780366423</v>
+        <v>1.063454312131062</v>
       </c>
       <c r="J5">
-        <v>1.064335177618466</v>
+        <v>1.057978613154171</v>
       </c>
       <c r="K5">
-        <v>1.05990441248193</v>
+        <v>1.058139606301628</v>
       </c>
       <c r="L5">
-        <v>1.068186497495338</v>
+        <v>1.056200515670448</v>
       </c>
       <c r="M5">
-        <v>1.079037184923474</v>
+        <v>1.05994409969479</v>
       </c>
       <c r="N5">
-        <v>1.065846655651635</v>
+        <v>1.059481064136694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06006793840795</v>
+        <v>1.040251954501444</v>
       </c>
       <c r="D6">
-        <v>1.057568283142104</v>
+        <v>1.049018497286422</v>
       </c>
       <c r="E6">
-        <v>1.065880887780758</v>
+        <v>1.047101247500025</v>
       </c>
       <c r="F6">
-        <v>1.076768077716617</v>
+        <v>1.050929430053648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050978214196324</v>
+        <v>1.063566803224847</v>
       </c>
       <c r="J6">
-        <v>1.064376993984209</v>
+        <v>1.058178445399961</v>
       </c>
       <c r="K6">
-        <v>1.059939777362015</v>
+        <v>1.058313163332505</v>
       </c>
       <c r="L6">
-        <v>1.068232947787014</v>
+        <v>1.056415926547265</v>
       </c>
       <c r="M6">
-        <v>1.079095170517222</v>
+        <v>1.060204237733912</v>
       </c>
       <c r="N6">
-        <v>1.065888531401415</v>
+        <v>1.059681180167192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059670282296508</v>
+        <v>1.038332102477248</v>
       </c>
       <c r="D7">
-        <v>1.057265815103971</v>
+        <v>1.04756037344023</v>
       </c>
       <c r="E7">
-        <v>1.065502554049223</v>
+        <v>1.045350581049759</v>
       </c>
       <c r="F7">
-        <v>1.076310943498463</v>
+        <v>1.048868272382831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050844441458158</v>
+        <v>1.062788874370066</v>
       </c>
       <c r="J7">
-        <v>1.064089351442828</v>
+        <v>1.056797867711934</v>
       </c>
       <c r="K7">
-        <v>1.059696488411278</v>
+        <v>1.057113950550725</v>
       </c>
       <c r="L7">
-        <v>1.067913460108284</v>
+        <v>1.054927993695833</v>
       </c>
       <c r="M7">
-        <v>1.078696403058877</v>
+        <v>1.058407800043399</v>
       </c>
       <c r="N7">
-        <v>1.065600480374631</v>
+        <v>1.058298641900494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058006558945654</v>
+        <v>1.030089362696177</v>
       </c>
       <c r="D8">
-        <v>1.055999967386921</v>
+        <v>1.041303444256144</v>
       </c>
       <c r="E8">
-        <v>1.063920163126706</v>
+        <v>1.037843903823787</v>
       </c>
       <c r="F8">
-        <v>1.074400054963134</v>
+        <v>1.040036174671749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050281745291878</v>
+        <v>1.059423445956817</v>
       </c>
       <c r="J8">
-        <v>1.062884412086414</v>
+        <v>1.050859338224773</v>
       </c>
       <c r="K8">
-        <v>1.058676742647052</v>
+        <v>1.051951555464494</v>
       </c>
       <c r="L8">
-        <v>1.066575874891593</v>
+        <v>1.048534540523034</v>
       </c>
       <c r="M8">
-        <v>1.077028411082802</v>
+        <v>1.050699822612729</v>
       </c>
       <c r="N8">
-        <v>1.064393829866123</v>
+        <v>1.052351679020302</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05506865325879</v>
+        <v>1.014650601361703</v>
       </c>
       <c r="D9">
-        <v>1.053763291752551</v>
+        <v>1.029602781172571</v>
       </c>
       <c r="E9">
-        <v>1.061127753524023</v>
+        <v>1.023824611865289</v>
       </c>
       <c r="F9">
-        <v>1.071032025508133</v>
+        <v>1.023561410210482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049276741753935</v>
+        <v>1.053024588672022</v>
       </c>
       <c r="J9">
-        <v>1.060751038804106</v>
+        <v>1.039696408958539</v>
       </c>
       <c r="K9">
-        <v>1.056868991787127</v>
+        <v>1.042233161599624</v>
       </c>
       <c r="L9">
-        <v>1.064210482763742</v>
+        <v>1.036542625566554</v>
       </c>
       <c r="M9">
-        <v>1.074084405305178</v>
+        <v>1.036283445748147</v>
       </c>
       <c r="N9">
-        <v>1.062257426949053</v>
+        <v>1.041172897114105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053105649747332</v>
+        <v>1.003645312467853</v>
       </c>
       <c r="D10">
-        <v>1.05226795375437</v>
+        <v>1.021280573655278</v>
       </c>
       <c r="E10">
-        <v>1.059263246111482</v>
+        <v>1.013862579456541</v>
       </c>
       <c r="F10">
-        <v>1.068785885287661</v>
+        <v>1.011864781578476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048597606112534</v>
+        <v>1.048401501448773</v>
       </c>
       <c r="J10">
-        <v>1.059321833599895</v>
+        <v>1.0317150434662</v>
       </c>
       <c r="K10">
-        <v>1.055656418303762</v>
+        <v>1.035275944773025</v>
       </c>
       <c r="L10">
-        <v>1.062627736229412</v>
+        <v>1.02798597179091</v>
       </c>
       <c r="M10">
-        <v>1.072118293122863</v>
+        <v>1.026023067947719</v>
       </c>
       <c r="N10">
-        <v>1.06082619210952</v>
+        <v>1.033180197167291</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052254553809115</v>
+        <v>0.99868570346463</v>
       </c>
       <c r="D11">
-        <v>1.051619425921153</v>
+        <v>1.017535922612797</v>
       </c>
       <c r="E11">
-        <v>1.058455163170101</v>
+        <v>1.009381498742608</v>
       </c>
       <c r="F11">
-        <v>1.067813038937472</v>
+        <v>1.006605069682585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048301347720986</v>
+        <v>1.046304171715333</v>
       </c>
       <c r="J11">
-        <v>1.058701286947778</v>
+        <v>1.028113261108868</v>
       </c>
       <c r="K11">
-        <v>1.055129575346969</v>
+        <v>1.032134544693746</v>
       </c>
       <c r="L11">
-        <v>1.061940970272391</v>
+        <v>1.024128636159352</v>
       </c>
       <c r="M11">
-        <v>1.071266078855766</v>
+        <v>1.021403489854932</v>
       </c>
       <c r="N11">
-        <v>1.060204764209979</v>
+        <v>1.029573299865882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051938248835412</v>
+        <v>0.9968118731666421</v>
       </c>
       <c r="D12">
-        <v>1.051378375490016</v>
+        <v>1.01612213242267</v>
       </c>
       <c r="E12">
-        <v>1.058154890414615</v>
+        <v>1.007689810648506</v>
       </c>
       <c r="F12">
-        <v>1.06745163758984</v>
+        <v>1.004619600174879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048190973719089</v>
+        <v>1.045509744426885</v>
       </c>
       <c r="J12">
-        <v>1.058470531071299</v>
+        <v>1.026751775811446</v>
       </c>
       <c r="K12">
-        <v>1.054933610841614</v>
+        <v>1.030946841512023</v>
       </c>
       <c r="L12">
-        <v>1.061685657075845</v>
+        <v>1.022671154170113</v>
       </c>
       <c r="M12">
-        <v>1.070949392751886</v>
+        <v>1.019658827891559</v>
       </c>
       <c r="N12">
-        <v>1.059973680633687</v>
+        <v>1.028209881103173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052006105092086</v>
+        <v>0.9972152885575456</v>
       </c>
       <c r="D13">
-        <v>1.051430088831571</v>
+        <v>1.016426458418109</v>
       </c>
       <c r="E13">
-        <v>1.058219305194097</v>
+        <v>1.008053950568904</v>
       </c>
       <c r="F13">
-        <v>1.067529161426044</v>
+        <v>1.005046971085191</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048214664297787</v>
+        <v>1.045680865930517</v>
       </c>
       <c r="J13">
-        <v>1.058520040679994</v>
+        <v>1.027044917709837</v>
       </c>
       <c r="K13">
-        <v>1.054975658223603</v>
+        <v>1.031202576907041</v>
       </c>
       <c r="L13">
-        <v>1.061740432532218</v>
+        <v>1.022984938025584</v>
       </c>
       <c r="M13">
-        <v>1.071017329210795</v>
+        <v>1.020034402390817</v>
       </c>
       <c r="N13">
-        <v>1.060023260551705</v>
+        <v>1.028503439296684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052228411435833</v>
+        <v>0.9985314719274995</v>
       </c>
       <c r="D14">
-        <v>1.051599503861936</v>
+        <v>1.017419534889077</v>
       </c>
       <c r="E14">
-        <v>1.058430344893545</v>
+        <v>1.009242231166892</v>
       </c>
       <c r="F14">
-        <v>1.067783166292928</v>
+        <v>1.006441613771133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04829223092236</v>
+        <v>1.046238824378905</v>
       </c>
       <c r="J14">
-        <v>1.058682217860306</v>
+        <v>1.028001212828479</v>
       </c>
       <c r="K14">
-        <v>1.055113382414643</v>
+        <v>1.032036803228353</v>
       </c>
       <c r="L14">
-        <v>1.061919870465867</v>
+        <v>1.024008675289078</v>
       </c>
       <c r="M14">
-        <v>1.071239904278811</v>
+        <v>1.021259875463912</v>
       </c>
       <c r="N14">
-        <v>1.060185668042215</v>
+        <v>1.029461092464083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052365359045951</v>
+        <v>0.9993381499663038</v>
       </c>
       <c r="D15">
-        <v>1.051703864997432</v>
+        <v>1.018028320008375</v>
       </c>
       <c r="E15">
-        <v>1.058560358096628</v>
+        <v>1.009970698379773</v>
       </c>
       <c r="F15">
-        <v>1.067939661242965</v>
+        <v>1.007296609230585</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048339978441834</v>
+        <v>1.046580529263618</v>
       </c>
       <c r="J15">
-        <v>1.058782106396133</v>
+        <v>1.0285872328959</v>
       </c>
       <c r="K15">
-        <v>1.055198202771559</v>
+        <v>1.032547987924592</v>
       </c>
       <c r="L15">
-        <v>1.062030399142254</v>
+        <v>1.024636103227392</v>
       </c>
       <c r="M15">
-        <v>1.071377022001067</v>
+        <v>1.022011051289837</v>
       </c>
       <c r="N15">
-        <v>1.060285698431221</v>
+        <v>1.030047944747217</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053162110577743</v>
+        <v>1.003970171749586</v>
       </c>
       <c r="D16">
-        <v>1.052310972350795</v>
+        <v>1.021525983435382</v>
       </c>
       <c r="E16">
-        <v>1.05931686002642</v>
+        <v>1.014156275461089</v>
       </c>
       <c r="F16">
-        <v>1.068850444150411</v>
+        <v>1.012209537339754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048617221559369</v>
+        <v>1.048538596198468</v>
       </c>
       <c r="J16">
-        <v>1.059362981337101</v>
+        <v>1.031950867684116</v>
       </c>
       <c r="K16">
-        <v>1.055691345191632</v>
+        <v>1.035481590757067</v>
       </c>
       <c r="L16">
-        <v>1.062673284279302</v>
+        <v>1.028238611743274</v>
       </c>
       <c r="M16">
-        <v>1.072174832975719</v>
+        <v>1.026325748577234</v>
       </c>
       <c r="N16">
-        <v>1.060867398281232</v>
+        <v>1.033416356282647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053661593492029</v>
+        <v>1.006822080697824</v>
       </c>
       <c r="D17">
-        <v>1.052691515407323</v>
+        <v>1.023681084654475</v>
       </c>
       <c r="E17">
-        <v>1.059791193222043</v>
+        <v>1.016735562032865</v>
       </c>
       <c r="F17">
-        <v>1.069421683056584</v>
+        <v>1.015237413684799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048790541810542</v>
+        <v>1.049740573577579</v>
       </c>
       <c r="J17">
-        <v>1.059726893821933</v>
+        <v>1.034020597398085</v>
       </c>
       <c r="K17">
-        <v>1.056000199201982</v>
+        <v>1.037286259436149</v>
       </c>
       <c r="L17">
-        <v>1.063076164850155</v>
+        <v>1.030456384044096</v>
       </c>
       <c r="M17">
-        <v>1.072675041459934</v>
+        <v>1.02898344839475</v>
       </c>
       <c r="N17">
-        <v>1.061231827563534</v>
+        <v>1.035489025250211</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05395282735374</v>
+        <v>1.008466986620577</v>
       </c>
       <c r="D18">
-        <v>1.052913379891855</v>
+        <v>1.024924628111122</v>
       </c>
       <c r="E18">
-        <v>1.060067792709698</v>
+        <v>1.018224009637403</v>
       </c>
       <c r="F18">
-        <v>1.069754852987257</v>
+        <v>1.016984890209058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048891425568811</v>
+        <v>1.05043252787521</v>
       </c>
       <c r="J18">
-        <v>1.059938994836794</v>
+        <v>1.035213893922291</v>
       </c>
       <c r="K18">
-        <v>1.056180175924116</v>
+        <v>1.038326565675204</v>
       </c>
       <c r="L18">
-        <v>1.063311020892727</v>
+        <v>1.031735416591738</v>
       </c>
       <c r="M18">
-        <v>1.07296672050498</v>
+        <v>1.030516744303464</v>
       </c>
       <c r="N18">
-        <v>1.061444229786164</v>
+        <v>1.036684016392354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054052112715684</v>
+        <v>1.009024777578882</v>
       </c>
       <c r="D19">
-        <v>1.052989013090033</v>
+        <v>1.025346403689033</v>
       </c>
       <c r="E19">
-        <v>1.060162094050303</v>
+        <v>1.018728875650919</v>
       </c>
       <c r="F19">
-        <v>1.069868451390918</v>
+        <v>1.017577645117265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048925788582987</v>
+        <v>1.050666945997365</v>
       </c>
       <c r="J19">
-        <v>1.060011288250878</v>
+        <v>1.035618461580005</v>
       </c>
       <c r="K19">
-        <v>1.05624151413659</v>
+        <v>1.038679234912781</v>
       </c>
       <c r="L19">
-        <v>1.063391077536432</v>
+        <v>1.03216911672381</v>
       </c>
       <c r="M19">
-        <v>1.073066161388039</v>
+        <v>1.031036755385319</v>
       </c>
       <c r="N19">
-        <v>1.061516625865188</v>
+        <v>1.037089158582546</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053608014707212</v>
+        <v>1.006518034733725</v>
       </c>
       <c r="D20">
-        <v>1.0526506970856</v>
+        <v>1.023451269539971</v>
       </c>
       <c r="E20">
-        <v>1.059740309135681</v>
+        <v>1.016460498780207</v>
       </c>
       <c r="F20">
-        <v>1.069360397053699</v>
+        <v>1.014914495521624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048771968026719</v>
+        <v>1.049612565182447</v>
       </c>
       <c r="J20">
-        <v>1.059687866337786</v>
+        <v>1.033799988870531</v>
       </c>
       <c r="K20">
-        <v>1.055967079961512</v>
+        <v>1.037093920762641</v>
       </c>
       <c r="L20">
-        <v>1.063032953813615</v>
+        <v>1.030219956245056</v>
       </c>
       <c r="M20">
-        <v>1.072621382555425</v>
+        <v>1.028700064971179</v>
       </c>
       <c r="N20">
-        <v>1.061192744655883</v>
+        <v>1.035268103433243</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052162952488127</v>
+        <v>0.9981447822104148</v>
       </c>
       <c r="D21">
-        <v>1.051549619749199</v>
+        <v>1.017127743956851</v>
       </c>
       <c r="E21">
-        <v>1.058368202160578</v>
+        <v>1.00889308108888</v>
       </c>
       <c r="F21">
-        <v>1.067708369414284</v>
+        <v>1.00603182483833</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04826939862026</v>
+        <v>1.046074953151715</v>
       </c>
       <c r="J21">
-        <v>1.058634467848459</v>
+        <v>1.027720274622546</v>
       </c>
       <c r="K21">
-        <v>1.055072833590377</v>
+        <v>1.031791732608151</v>
       </c>
       <c r="L21">
-        <v>1.061867036505402</v>
+        <v>1.023707907559266</v>
       </c>
       <c r="M21">
-        <v>1.071174365252155</v>
+        <v>1.020899816490405</v>
       </c>
       <c r="N21">
-        <v>1.060137850219875</v>
+        <v>1.029179755293673</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051253398475659</v>
+        <v>0.9926958855856713</v>
       </c>
       <c r="D22">
-        <v>1.050856411457514</v>
+        <v>1.013018667520439</v>
       </c>
       <c r="E22">
-        <v>1.057504838143726</v>
+        <v>1.003976493803721</v>
       </c>
       <c r="F22">
-        <v>1.066669423430088</v>
+        <v>1.000261635595841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047951500592705</v>
+        <v>1.043761098151145</v>
       </c>
       <c r="J22">
-        <v>1.05797066466137</v>
+        <v>1.023760045123397</v>
       </c>
       <c r="K22">
-        <v>1.054509012890919</v>
+        <v>1.028336559735361</v>
       </c>
       <c r="L22">
-        <v>1.06113271650595</v>
+        <v>1.019469585035087</v>
       </c>
       <c r="M22">
-        <v>1.070263780284908</v>
+        <v>1.015827911215212</v>
       </c>
       <c r="N22">
-        <v>1.059473104356121</v>
+        <v>1.02521390181439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051735665210536</v>
+        <v>0.9956028029404601</v>
       </c>
       <c r="D23">
-        <v>1.051223982099868</v>
+        <v>1.015210200128689</v>
       </c>
       <c r="E23">
-        <v>1.057962588122016</v>
+        <v>1.006598656718187</v>
       </c>
       <c r="F23">
-        <v>1.067220213756902</v>
+        <v>1.003338991001193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048120206221179</v>
+        <v>1.044996588725474</v>
       </c>
       <c r="J23">
-        <v>1.058322701543407</v>
+        <v>1.025873112938672</v>
       </c>
       <c r="K23">
-        <v>1.054808054822178</v>
+        <v>1.030180267091485</v>
       </c>
       <c r="L23">
-        <v>1.06152211416747</v>
+        <v>1.021730707056941</v>
       </c>
       <c r="M23">
-        <v>1.070746574736064</v>
+        <v>1.018533305494322</v>
       </c>
       <c r="N23">
-        <v>1.059825641170909</v>
+        <v>1.027329970428336</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053632224981341</v>
+        <v>1.006655477206852</v>
       </c>
       <c r="D24">
-        <v>1.052669141436622</v>
+        <v>1.023555154664887</v>
       </c>
       <c r="E24">
-        <v>1.059763301683389</v>
+        <v>1.016584837337126</v>
       </c>
       <c r="F24">
-        <v>1.069388089634486</v>
+        <v>1.015060465736007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048780361372056</v>
+        <v>1.049670434830737</v>
       </c>
       <c r="J24">
-        <v>1.059705501681413</v>
+        <v>1.033899715325188</v>
       </c>
       <c r="K24">
-        <v>1.055982045653885</v>
+        <v>1.037180868312576</v>
       </c>
       <c r="L24">
-        <v>1.06305247944536</v>
+        <v>1.030326832639556</v>
       </c>
       <c r="M24">
-        <v>1.072645628964309</v>
+        <v>1.028828165792137</v>
       </c>
       <c r="N24">
-        <v>1.06121040504372</v>
+        <v>1.035367971510904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055828931397115</v>
+        <v>1.018759729220899</v>
       </c>
       <c r="D25">
-        <v>1.054342260681566</v>
+        <v>1.03271427661648</v>
       </c>
       <c r="E25">
-        <v>1.061850155806005</v>
+        <v>1.027550853972514</v>
       </c>
       <c r="F25">
-        <v>1.071902862262384</v>
+        <v>1.027938303363788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04953816296155</v>
+        <v>1.054738461143492</v>
       </c>
       <c r="J25">
-        <v>1.06130378164517</v>
+        <v>1.042671837146704</v>
       </c>
       <c r="K25">
-        <v>1.057337634857797</v>
+        <v>1.044825117754511</v>
       </c>
       <c r="L25">
-        <v>1.064823006113241</v>
+        <v>1.03973601978771</v>
       </c>
       <c r="M25">
-        <v>1.074846091761801</v>
+        <v>1.040117859212715</v>
       </c>
       <c r="N25">
-        <v>1.062810954748351</v>
+        <v>1.044152550751583</v>
       </c>
     </row>
   </sheetData>
